--- a/Base/BASE.xlsx
+++ b/Base/BASE.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micae\OneDrive\Área de Trabalho\webgpm\GPM-PUPPERTEER\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09956F-F89E-4AFF-B020-77823E5672D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C3F3A-3788-4AB2-881C-DA30647DAC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -363,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +388,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65681310-DE29-421B-9C35-2751653123E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>